--- a/Word-Printer/samples/Level4/四层项目/XXX项目/07 ZRXX-20000-PM-P-01 问题管理程序记录/ZRXX-20000-PM-R-02 问题汇总记录-XXX项目.xlsx
+++ b/Word-Printer/samples/Level4/四层项目/XXX项目/07 ZRXX-20000-PM-P-01 问题管理程序记录/ZRXX-20000-PM-R-02 问题汇总记录-XXX项目.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\WordPrinter\Word-Printer\samples\Level4\四层项目\XXX项目\07 ZRXX-20000-PM-P-01 问题管理程序记录\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="11020" tabRatio="871"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="11025" tabRatio="871"/>
   </bookViews>
   <sheets>
     <sheet name="问题汇总记录" sheetId="2" r:id="rId1"/>
@@ -115,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28">
     <font>
       <sz val="12"/>
@@ -376,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -626,6 +631,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -776,9 +790,6 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -792,6 +803,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -823,6 +837,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -871,7 +888,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,7 +923,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,27 +1136,27 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.58203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.08203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.58203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="5" customWidth="1"/>
     <col min="7" max="7" width="6.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="7.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.58203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="5" customWidth="1"/>
     <col min="11" max="11" width="5.25" style="5" customWidth="1"/>
     <col min="12" max="12" width="15" style="5" customWidth="1"/>
-    <col min="13" max="13" width="5.08203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="5.125" style="5" customWidth="1"/>
     <col min="14" max="14" width="9.5" style="5" customWidth="1"/>
     <col min="15" max="15" width="9" style="5" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="5" customWidth="1"/>
     <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1161,47 +1178,49 @@
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A2" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
     </row>
@@ -1517,10 +1536,10 @@
   </protectedRanges>
   <mergeCells count="5">
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="M3:P3"/>
+    <mergeCell ref="A2:P2"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
